--- a/Running projects/Food Court North Walk/332 Invoice for supply of Fire Work - food courts.xlsx
+++ b/Running projects/Food Court North Walk/332 Invoice for supply of Fire Work - food courts.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC1321A-19F6-4548-9EC9-41247AB76101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7E99F7-9380-48E7-A235-151A0F385D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,9 +35,6 @@
     <t>Total Amount Rs</t>
   </si>
   <si>
-    <t>Job</t>
-  </si>
-  <si>
     <t>Nos</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>29-12-23</t>
-  </si>
-  <si>
     <t>Invoice #</t>
   </si>
   <si>
@@ -137,18 +131,12 @@
     <t>Net Payable Amount Rs</t>
   </si>
   <si>
-    <t xml:space="preserve">Supply of ASTM A53 and A120 Schedule 40 MS piping with fittings and specials for fire protection system, including all cutting, fixing, laying through walls and roofs and making good complete in all respect as per drawings and specifications. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Supply Gate Valve 1-1/4" dia </t>
   </si>
   <si>
     <t>Supply of (UL/FM) upright sprinkler</t>
   </si>
   <si>
-    <t>Supply of Painting</t>
-  </si>
-  <si>
     <t>Supply of hangers &amp; supports.</t>
   </si>
   <si>
@@ -156,6 +144,18 @@
   </si>
   <si>
     <t>Supply of Fire Fighting Work Food Court - The North Walk Shopping Mall</t>
+  </si>
+  <si>
+    <t>Supply of ASTM A53 and A120 Schedule 40 MS piping with fittings.</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Supply of Paint.</t>
+  </si>
+  <si>
+    <t>18-01-24</t>
   </si>
 </sst>
 </file>
@@ -438,26 +438,26 @@
     <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -683,8 +683,8 @@
       <xdr:rowOff>97921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>136020</xdr:rowOff>
     </xdr:to>
@@ -704,7 +704,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="12193270" y="1764796"/>
-          <a:ext cx="3465830" cy="514349"/>
+          <a:ext cx="4170680" cy="514349"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1225,8 +1225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A7:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:E23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1248,22 +1248,22 @@
   </cols>
   <sheetData>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
       <c r="E7" s="28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="9"/>
       <c r="E8" s="28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F8" s="30">
         <v>332</v>
@@ -1271,43 +1271,43 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="9"/>
       <c r="E9" s="28" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F9" s="31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11" s="8" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
+      <c r="A10" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
     </row>
     <row r="11" spans="1:11" s="8" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
     </row>
     <row r="12" spans="1:11" s="8" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="A12" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
     </row>
     <row r="13" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
@@ -1323,18 +1323,18 @@
         <v>3</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>1</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -1347,13 +1347,13 @@
     </row>
     <row r="15" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="23">
         <v>200</v>
@@ -1362,7 +1362,7 @@
         <v>400</v>
       </c>
       <c r="F15" s="25">
-        <f>E15*D15</f>
+        <f t="shared" ref="F15:F22" si="0">E15*D15</f>
         <v>80000</v>
       </c>
       <c r="H15" s="10"/>
@@ -1372,13 +1372,13 @@
     </row>
     <row r="16" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="23">
         <v>240</v>
@@ -1387,7 +1387,7 @@
         <v>550</v>
       </c>
       <c r="F16" s="25">
-        <f>E16*D16</f>
+        <f t="shared" si="0"/>
         <v>132000</v>
       </c>
       <c r="H16" s="10"/>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="17" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" s="23">
         <v>140</v>
@@ -1412,7 +1412,7 @@
         <v>650</v>
       </c>
       <c r="F17" s="25">
-        <f>E17*D17</f>
+        <f t="shared" si="0"/>
         <v>91000</v>
       </c>
       <c r="H17" s="10"/>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="18" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" s="23">
         <v>140</v>
@@ -1437,7 +1437,7 @@
         <v>880</v>
       </c>
       <c r="F18" s="25">
-        <f>E18*D18</f>
+        <f t="shared" si="0"/>
         <v>123200</v>
       </c>
       <c r="H18" s="10"/>
@@ -1450,20 +1450,20 @@
         <v>2</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="23">
         <v>10</v>
       </c>
       <c r="E19" s="26">
-        <v>5750</v>
+        <v>5730</v>
       </c>
       <c r="F19" s="25">
-        <f>E19*D19</f>
-        <v>57500</v>
+        <f t="shared" si="0"/>
+        <v>57300</v>
       </c>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
@@ -1475,10 +1475,10 @@
         <v>3</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" s="23">
         <v>42</v>
@@ -1487,7 +1487,7 @@
         <v>1900</v>
       </c>
       <c r="F20" s="25">
-        <f>E20*D20</f>
+        <f t="shared" si="0"/>
         <v>79800</v>
       </c>
       <c r="H20" s="10"/>
@@ -1500,10 +1500,10 @@
         <v>4</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D21" s="23">
         <v>1</v>
@@ -1512,12 +1512,12 @@
         <v>30000</v>
       </c>
       <c r="F21" s="25">
-        <f>E21*D21</f>
+        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
@@ -1527,10 +1527,10 @@
         <v>5</v>
       </c>
       <c r="B22" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>5</v>
       </c>
       <c r="D22" s="23">
         <v>1</v>
@@ -1539,27 +1539,27 @@
         <v>45000</v>
       </c>
       <c r="F22" s="25">
-        <f>E22*D22</f>
+        <f t="shared" si="0"/>
         <v>45000</v>
       </c>
       <c r="H22" s="10"/>
       <c r="I22" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="11">
         <f>SUM(F15:F22)</f>
-        <v>638500</v>
+        <v>638300</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="10"/>
@@ -1567,13 +1567,13 @@
       <c r="K23" s="10"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
+      <c r="A24" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
       <c r="F24" s="34">
         <v>446950</v>
       </c>
@@ -1583,19 +1583,19 @@
       <c r="M24" s="10"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
+      <c r="A25" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="34">
         <f>F23-F24</f>
-        <v>191550</v>
+        <v>191350</v>
       </c>
       <c r="I25" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J25" s="16">
         <v>0.4</v>
@@ -1616,7 +1616,7 @@
       <c r="G26" s="12"/>
       <c r="H26" s="12"/>
       <c r="I26" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J26" s="18">
         <v>7.4999999999999997E-2</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="27"/>
@@ -1672,11 +1672,11 @@
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="32"/>
-      <c r="I30" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="36"/>
+      <c r="I30" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
       <c r="M30" s="10"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
@@ -1687,7 +1687,7 @@
       <c r="E31" s="27"/>
       <c r="F31" s="32"/>
       <c r="I31" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J31" s="16">
         <v>0.4</v>
@@ -1703,7 +1703,7 @@
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
       <c r="I32" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J32" s="18">
         <v>7.4999999999999997E-2</v>
@@ -1720,10 +1720,10 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="H33" s="3"/>
-      <c r="I33" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="J33" s="38"/>
+      <c r="I33" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="37"/>
       <c r="K33" s="17" t="e">
         <f>K31-K32</f>
         <v>#REF!</v>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I39" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="19" t="e">
@@ -1751,7 +1751,7 @@
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I40" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J40" s="15"/>
       <c r="K40" s="19" t="e">
@@ -1761,7 +1761,7 @@
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I41" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J41" s="15"/>
       <c r="K41" s="19" t="e">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I42" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J42" s="15"/>
       <c r="K42" s="17" t="e">
@@ -1781,7 +1781,7 @@
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I43" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="19" t="e">
@@ -1791,7 +1791,7 @@
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.3">
       <c r="I44" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J44" s="15"/>
       <c r="K44" s="17" t="e">
